--- a/BaMWPart/documentation/calculation/worksVolumes.xlsx
+++ b/BaMWPart/documentation/calculation/worksVolumes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplom\ASK_Diplom\BaMWPart\documentation\calculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kostya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10D5154-7F9D-478D-985F-DCA12F0F6A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022211A9-480C-4C03-A27F-933963BDBCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="исходники" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="184">
   <si>
     <t>диаметр</t>
   </si>
@@ -918,6 +918,12 @@
   <si>
     <t>Lтр</t>
   </si>
+  <si>
+    <t>Е22-18-2</t>
+  </si>
+  <si>
+    <t>НАНЕСЕНИЕ НОРМАЛЬНОЙ АНТИКОРРОЗИОННОЙ БИТУМНО-ПОЛИМЕРНОЙ ИЗОЛЯЦИИ НА СТАЛЬНЫЕ ТРУБОПРОВОДЫ ДИАМЕТРОМ 75 ММ</t>
+  </si>
 </sst>
 </file>
 
@@ -929,7 +935,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1055,12 @@
       <name val="ISOCPEUR"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1787,7 +1799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2204,6 +2216,22 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2339,34 +2367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2656,16 +2656,16 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>32</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>48</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>57</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>71.149999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>76</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>624.94999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>89</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>116.55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>108</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>2394.15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>325</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>10585.15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2950,24 +2950,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD688E8-3ED6-41C0-AD99-BDEDEDD62A18}">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>557762</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>0.94000000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>исходники!A3</f>
         <v>32</v>
@@ -3089,12 +3089,12 @@
         <f>исходники!B3/исходники!$B$18</f>
         <v>5.05</v>
       </c>
-      <c r="L11" s="230">
+      <c r="L11" s="179">
         <f t="shared" ref="L11:L17" si="6">ROUND(K11,0)+1</f>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>исходники!A4</f>
         <v>48</v>
@@ -3139,12 +3139,12 @@
         <f>исходники!B4/исходники!$B$18</f>
         <v>13.43125</v>
       </c>
-      <c r="L12" s="230">
+      <c r="L12" s="179">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>исходники!A5</f>
         <v>57</v>
@@ -3189,12 +3189,12 @@
         <f>исходники!B5/исходники!$B$18</f>
         <v>8.75</v>
       </c>
-      <c r="L13" s="230">
+      <c r="L13" s="179">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>исходники!A6</f>
         <v>76</v>
@@ -3239,12 +3239,12 @@
         <f>исходники!B6/исходники!$B$18</f>
         <v>77.974999999999994</v>
       </c>
-      <c r="L14" s="230">
+      <c r="L14" s="179">
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>исходники!A7</f>
         <v>89</v>
@@ -3289,12 +3289,12 @@
         <f>исходники!B7/исходники!$B$18</f>
         <v>14.425000000000001</v>
       </c>
-      <c r="L15" s="230">
+      <c r="L15" s="179">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>исходники!A8</f>
         <v>108</v>
@@ -3339,12 +3339,12 @@
         <f>исходники!B8/исходники!$B$18</f>
         <v>299.125</v>
       </c>
-      <c r="L16" s="230">
+      <c r="L16" s="179">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>исходники!A9</f>
         <v>325</v>
@@ -3389,12 +3389,12 @@
         <f>исходники!B9/исходники!$B$18</f>
         <v>1323</v>
       </c>
-      <c r="L17" s="230">
+      <c r="L17" s="179">
         <f t="shared" si="6"/>
         <v>1324</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -3438,12 +3438,12 @@
         <f>исходники!B10/исходники!$B$18</f>
         <v>1741.7562499999999</v>
       </c>
-      <c r="L18" s="230">
+      <c r="L18" s="179">
         <f>ROUND(K18,0)+1</f>
         <v>1743</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="133"/>
     </row>
   </sheetData>
@@ -3453,77 +3453,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF72D008-3CC3-4CF9-93DA-647CD52762FF}">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H20" sqref="A19:H20"/>
+    <sheetView topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="182" t="s">
+    <row r="1" spans="1:29" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="180" t="s">
+      <c r="E1" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="181"/>
+      <c r="H1" s="187"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="177" t="s">
+      <c r="J1" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="178"/>
-      <c r="AA1" s="178"/>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="179"/>
-    </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="183"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="185"/>
+    </row>
+    <row r="2" spans="1:29" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
       <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="AB2" s="11"/>
       <c r="AC2" s="17"/>
     </row>
-    <row r="3" spans="1:29" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52">
         <v>1</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="58.2" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="70.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
         <v>39</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="AB4" s="31"/>
       <c r="AC4" s="32"/>
     </row>
-    <row r="5" spans="1:29" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="35.25" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>41</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="34"/>
     </row>
-    <row r="6" spans="1:29" ht="76.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>42</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="34"/>
     </row>
-    <row r="7" spans="1:29" ht="76.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>43</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="34"/>
     </row>
-    <row r="8" spans="1:29" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>44</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="34"/>
     </row>
-    <row r="9" spans="1:29" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:29" ht="36" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="60" t="s">
         <v>70</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="34"/>
     </row>
-    <row r="10" spans="1:29" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="65"/>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -3986,11 +3986,11 @@
       <c r="AB10" s="14"/>
       <c r="AC10" s="34"/>
     </row>
-    <row r="11" spans="1:29" ht="72" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="221" t="s">
+    <row r="11" spans="1:29" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="222" t="s">
+      <c r="B11" s="177" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="76" t="s">
@@ -4001,11 +4001,12 @@
         <v>0.21784999999999999</v>
       </c>
       <c r="E11" s="77">
-        <v>477.25</v>
+        <f>477.25+G11</f>
+        <v>594.52</v>
       </c>
       <c r="F11" s="77">
         <f>D11*E11</f>
-        <v>103.96891249999999</v>
+        <v>129.51618199999999</v>
       </c>
       <c r="G11" s="77">
         <v>117.27</v>
@@ -4036,7 +4037,7 @@
       <c r="AB11" s="14"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:29" ht="72" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>52</v>
       </c>
@@ -4051,11 +4052,12 @@
         <v>0.62379999999999991</v>
       </c>
       <c r="E12" s="47">
-        <v>483</v>
+        <f>483+G12</f>
+        <v>600.30999999999995</v>
       </c>
       <c r="F12" s="47">
         <f>D12*E12</f>
-        <v>301.29539999999997</v>
+        <v>374.47337799999991</v>
       </c>
       <c r="G12" s="47">
         <v>117.31</v>
@@ -4086,7 +4088,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="34"/>
     </row>
-    <row r="13" spans="1:29" ht="76.8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>55</v>
       </c>
@@ -4101,11 +4103,12 @@
         <v>0.1154</v>
       </c>
       <c r="E13" s="47">
-        <v>494.48</v>
+        <f>494.48+G13</f>
+        <v>611.86</v>
       </c>
       <c r="F13" s="47">
         <f>D13*E13</f>
-        <v>57.062992000000001</v>
+        <v>70.608643999999998</v>
       </c>
       <c r="G13" s="47">
         <v>117.38</v>
@@ -4136,7 +4139,7 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="34"/>
     </row>
-    <row r="14" spans="1:29" ht="76.8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>109</v>
       </c>
@@ -4151,11 +4154,12 @@
         <v>2.3929999999999998</v>
       </c>
       <c r="E14" s="47">
-        <v>554.29999999999995</v>
+        <f>554.3+G14</f>
+        <v>671.79</v>
       </c>
       <c r="F14" s="47">
         <f>D14*E14</f>
-        <v>1326.4398999999999</v>
+        <v>1607.5934699999998</v>
       </c>
       <c r="G14" s="47">
         <v>117.49</v>
@@ -4186,7 +4190,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="34"/>
     </row>
-    <row r="15" spans="1:29" ht="76.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>111</v>
       </c>
@@ -4201,11 +4205,12 @@
         <v>10.584</v>
       </c>
       <c r="E15" s="47">
-        <v>1009.66</v>
+        <f>1009.66+G15</f>
+        <v>1220</v>
       </c>
       <c r="F15" s="47">
         <f>D15*E15</f>
-        <v>10686.24144</v>
+        <v>12912.48</v>
       </c>
       <c r="G15" s="47">
         <v>210.34</v>
@@ -4236,31 +4241,32 @@
       <c r="AB15" s="14"/>
       <c r="AC15" s="34"/>
     </row>
-    <row r="16" spans="1:29" s="15" customFormat="1" ht="76.8" x14ac:dyDescent="0.45">
-      <c r="A16" s="223" t="s">
+    <row r="16" spans="1:29" s="15" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="224" t="s">
+      <c r="B16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="226">
+      <c r="D16" s="47">
         <f>SUM(исходники!B3:B5)/1000</f>
         <v>0.21784999999999999</v>
       </c>
-      <c r="E16" s="226">
-        <v>128</v>
-      </c>
-      <c r="F16" s="226">
+      <c r="E16" s="47">
+        <f>128+G16</f>
+        <v>168.26</v>
+      </c>
+      <c r="F16" s="47">
         <f>E16*D16</f>
-        <v>27.884799999999998</v>
-      </c>
-      <c r="G16" s="226">
+        <v>36.655440999999996</v>
+      </c>
+      <c r="G16" s="47">
         <v>40.26</v>
       </c>
-      <c r="H16" s="227">
+      <c r="H16" s="48">
         <f>G16*D16</f>
         <v>8.7706409999999995</v>
       </c>
@@ -4286,33 +4292,34 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="34"/>
     </row>
-    <row r="17" spans="1:29" s="15" customFormat="1" ht="76.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="223" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="228" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="225" t="s">
+    <row r="17" spans="1:29" s="15" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A17" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="180" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="226">
-        <f>SUM(исходники!B6:B8)/1000</f>
-        <v>3.1321999999999997</v>
-      </c>
-      <c r="E17" s="226">
-        <v>129</v>
-      </c>
-      <c r="F17" s="226">
-        <f>E17*D17</f>
-        <v>404.05379999999997</v>
-      </c>
-      <c r="G17" s="226">
-        <v>42.34</v>
-      </c>
-      <c r="H17" s="227">
-        <f>G17*D17</f>
-        <v>132.61734799999999</v>
+      <c r="D17" s="47">
+        <f>исходники!B6/1000</f>
+        <v>0.62379999999999991</v>
+      </c>
+      <c r="E17" s="47">
+        <f>128+G17</f>
+        <v>168.59</v>
+      </c>
+      <c r="F17" s="47">
+        <f t="shared" ref="F17" si="2">E17*D17</f>
+        <v>105.16644199999999</v>
+      </c>
+      <c r="G17" s="47">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" ref="H17" si="3">G17*D17</f>
+        <v>25.320041999999997</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="33"/>
@@ -4336,33 +4343,34 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="34"/>
     </row>
-    <row r="18" spans="1:29" s="15" customFormat="1" ht="76.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="223" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="224" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="225" t="s">
+    <row r="18" spans="1:29" s="15" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="226">
-        <f>исходники!B9/1000</f>
-        <v>10.584</v>
-      </c>
-      <c r="E18" s="226">
-        <v>216</v>
-      </c>
-      <c r="F18" s="226">
+      <c r="D18" s="47">
+        <f>SUM(исходники!B7:B8)/1000</f>
+        <v>2.5084</v>
+      </c>
+      <c r="E18" s="47">
+        <f>129+G18</f>
+        <v>171.34</v>
+      </c>
+      <c r="F18" s="47">
         <f>E18*D18</f>
-        <v>2286.1439999999998</v>
-      </c>
-      <c r="G18" s="226">
-        <v>127.32</v>
-      </c>
-      <c r="H18" s="227">
+        <v>429.78925600000002</v>
+      </c>
+      <c r="G18" s="47">
+        <v>42.34</v>
+      </c>
+      <c r="H18" s="48">
         <f>G18*D18</f>
-        <v>1347.5548799999999</v>
+        <v>106.205656</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="33"/>
@@ -4386,35 +4394,36 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="34"/>
     </row>
-    <row r="19" spans="1:29" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" s="15" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="B19" s="181" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="47">
-        <f>SUM(исходники!B3:B8)/1000</f>
-        <v>3.35005</v>
+        <f>исходники!B9/1000</f>
+        <v>10.584</v>
       </c>
       <c r="E19" s="47">
-        <v>135</v>
+        <f>216+G19</f>
+        <v>343.32</v>
       </c>
       <c r="F19" s="47">
-        <f>D19*E19</f>
-        <v>452.25675000000001</v>
+        <f>E19*D19</f>
+        <v>3633.6988799999999</v>
       </c>
       <c r="G19" s="47">
-        <v>16</v>
+        <v>127.32</v>
       </c>
       <c r="H19" s="48">
-        <f>D19*G19</f>
-        <v>53.6008</v>
-      </c>
-      <c r="I19" s="25"/>
+        <f>G19*D19</f>
+        <v>1347.5548799999999</v>
+      </c>
+      <c r="I19" s="26"/>
       <c r="J19" s="33"/>
       <c r="K19" s="175"/>
       <c r="L19" s="175"/>
@@ -4436,33 +4445,34 @@
       <c r="AB19" s="14"/>
       <c r="AC19" s="34"/>
     </row>
-    <row r="20" spans="1:29" ht="58.2" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="229" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="49" t="s">
+    <row r="20" spans="1:29" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="50">
-        <f>исходники!B9/1000</f>
-        <v>10.584</v>
-      </c>
-      <c r="E20" s="50">
-        <v>180</v>
-      </c>
-      <c r="F20" s="50">
+      <c r="D20" s="47">
+        <f>SUM(исходники!B3:B8)/1000</f>
+        <v>3.35005</v>
+      </c>
+      <c r="E20" s="47">
+        <f>135+G20</f>
+        <v>151</v>
+      </c>
+      <c r="F20" s="47">
         <f>D20*E20</f>
-        <v>1905.12</v>
-      </c>
-      <c r="G20" s="50">
-        <v>67</v>
-      </c>
-      <c r="H20" s="51">
+        <v>505.85755</v>
+      </c>
+      <c r="G20" s="47">
+        <v>16</v>
+      </c>
+      <c r="H20" s="48">
         <f>D20*G20</f>
-        <v>709.12799999999993</v>
+        <v>53.6008</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="33"/>
@@ -4486,20 +4496,34 @@
       <c r="AB20" s="14"/>
       <c r="AC20" s="34"/>
     </row>
-    <row r="21" spans="1:29" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80">
-        <f>SUM(F11:F20)</f>
-        <v>17550.467994499999</v>
-      </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="80">
-        <f>SUM(H11:H20)</f>
-        <v>4871.3346984999989</v>
+    <row r="21" spans="1:29" ht="53.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="178" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="50">
+        <f>исходники!B9/1000</f>
+        <v>10.584</v>
+      </c>
+      <c r="E21" s="50">
+        <f>180+G21</f>
+        <v>247</v>
+      </c>
+      <c r="F21" s="50">
+        <f>D21*E21</f>
+        <v>2614.248</v>
+      </c>
+      <c r="G21" s="50">
+        <v>67</v>
+      </c>
+      <c r="H21" s="51">
+        <f>D21*G21</f>
+        <v>709.12799999999993</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="33"/>
@@ -4523,34 +4547,20 @@
       <c r="AB21" s="14"/>
       <c r="AC21" s="34"/>
     </row>
-    <row r="22" spans="1:29" ht="76.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="77">
-        <f>'земляные работы'!H18/1000</f>
-        <v>13.974057918929654</v>
-      </c>
-      <c r="E22" s="77">
-        <f>G22</f>
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="F22" s="77">
-        <f>D22*E22</f>
-        <v>112.21168508900512</v>
-      </c>
-      <c r="G22" s="77">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="H22" s="78">
-        <f>D22*G22</f>
-        <v>112.21168508900512</v>
+    <row r="22" spans="1:29" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80">
+        <f>SUM(F11:F21)</f>
+        <v>22420.087243000002</v>
+      </c>
+      <c r="G22" s="81"/>
+      <c r="H22" s="80">
+        <f>SUM(H11:H21)</f>
+        <v>4870.2430484999995</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="33"/>
@@ -4574,29 +4584,35 @@
       <c r="AB22" s="14"/>
       <c r="AC22" s="34"/>
     </row>
-    <row r="23" spans="1:29" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="47">
-        <f>'земляные работы'!I18/100</f>
-        <v>7.3547673257524595</v>
-      </c>
-      <c r="E23" s="47">
-        <v>102.91</v>
-      </c>
-      <c r="F23" s="47">
+    <row r="23" spans="1:29" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A23" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="77">
+        <f>'земляные работы'!H18/1000</f>
+        <v>13.974057918929654</v>
+      </c>
+      <c r="E23" s="77">
+        <f>G23</f>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F23" s="77">
         <f>D23*E23</f>
-        <v>756.87910549318553</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+        <v>112.21168508900512</v>
+      </c>
+      <c r="G23" s="77">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="H23" s="78">
+        <f>D23*G23</f>
+        <v>112.21168508900512</v>
+      </c>
       <c r="I23" s="25"/>
       <c r="J23" s="33"/>
       <c r="K23" s="175"/>
@@ -4619,147 +4635,192 @@
       <c r="AB23" s="14"/>
       <c r="AC23" s="34"/>
     </row>
-    <row r="24" spans="1:29" ht="39" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:29" ht="35.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="47">
+        <f>'земляные работы'!I18/100</f>
+        <v>7.3547673257524595</v>
+      </c>
+      <c r="E24" s="47">
+        <v>102.91</v>
+      </c>
+      <c r="F24" s="47">
+        <f>D24*E24</f>
+        <v>756.87910549318553</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="34"/>
+    </row>
+    <row r="25" spans="1:29" ht="36" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B25" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C25" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D25" s="50">
         <f>'земляные работы'!J18/100</f>
         <v>147.09534651504902</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E25" s="50">
         <v>12.53</v>
       </c>
-      <c r="F24" s="50">
-        <f>D24*E24</f>
+      <c r="F25" s="50">
+        <f>D25*E25</f>
         <v>1843.1046918335642</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G25" s="50">
         <v>12.18</v>
       </c>
-      <c r="H24" s="51">
-        <f>D24*G24</f>
+      <c r="H25" s="51">
+        <f>D25*G25</f>
         <v>1791.621320553297</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="38"/>
-    </row>
-    <row r="25" spans="1:29" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="80">
-        <f>SUM(F22:F24)</f>
+      <c r="I25" s="25"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="38"/>
+    </row>
+    <row r="26" spans="1:29" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="84"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="80">
+        <f>SUM(F23:F25)</f>
         <v>2712.1954824157547</v>
       </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="80">
-        <f t="shared" ref="H25" si="2">SUM(H22:H24)</f>
+      <c r="G26" s="86"/>
+      <c r="H26" s="80">
+        <f t="shared" ref="H26" si="4">SUM(H23:H25)</f>
         <v>1903.8330056423022</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="87" t="s">
+    <row r="31" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="88">
-        <f>SUM(F10,F21,F25)</f>
-        <v>24220.98069215985</v>
-      </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88">
-        <f>SUM(H10,H21,H25)</f>
-        <v>7804.2411742706881</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:29" ht="21" x14ac:dyDescent="0.4">
-      <c r="E32" s="176" t="s">
+      <c r="F31" s="88">
+        <f>SUM(F10,F22,F26)</f>
+        <v>29090.599940659853</v>
+      </c>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88">
+        <f>SUM(H10,H22,H26)</f>
+        <v>7803.1495242706878</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E33" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="94">
-        <f>F30*0.06</f>
-        <v>1453.2588415295909</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="93"/>
-    </row>
-    <row r="34" spans="5:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="E34" s="176" t="s">
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="94">
+        <f>F31*0.06</f>
+        <v>1745.435996439591</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="93"/>
+    </row>
+    <row r="35" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E35" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="94">
-        <f>F30*0.05</f>
-        <v>1211.0490346079926</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="E35" s="96"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="93"/>
-    </row>
-    <row r="36" spans="5:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="E36" s="176" t="s">
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="94">
+        <f>F31*0.05</f>
+        <v>1454.5299970329927</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E36" s="96"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="93"/>
+    </row>
+    <row r="37" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E37" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="94">
-        <f>F30*0.07</f>
-        <v>1695.4686484511897</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="E37" s="96"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="93"/>
-    </row>
-    <row r="38" spans="5:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="E38" s="176" t="s">
+      <c r="F37" s="182"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="94">
+        <f>F31*0.07</f>
+        <v>2036.34199584619</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E38" s="96"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="93"/>
+    </row>
+    <row r="39" spans="5:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="E39" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="94">
-        <f>F30*0.06</f>
-        <v>1453.2588415295909</v>
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="94">
+        <f>F31*0.06</f>
+        <v>1745.435996439591</v>
       </c>
     </row>
   </sheetData>
@@ -4769,13 +4830,14 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E39:G39"/>
     <mergeCell ref="J1:AC1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4785,53 +4847,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCFD238-66E2-4586-9621-468FEA87056B}">
   <dimension ref="A1:GW37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" customWidth="1"/>
-    <col min="12" max="148" width="5.6640625" customWidth="1"/>
-    <col min="149" max="205" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="148" width="5.7109375" customWidth="1"/>
+    <col min="149" max="205" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:205" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="200" t="s">
+    <row r="1" spans="1:205" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="202" t="s">
+      <c r="C1" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="204" t="s">
+      <c r="D1" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="205"/>
-      <c r="F1" s="204" t="s">
+      <c r="E1" s="211"/>
+      <c r="F1" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="205"/>
-      <c r="H1" s="189" t="s">
+      <c r="G1" s="211"/>
+      <c r="H1" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="189" t="s">
+      <c r="I1" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="189" t="s">
+      <c r="J1" s="195" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="191" t="s">
+      <c r="K1" s="197" t="s">
         <v>91</v>
       </c>
       <c r="L1" s="108"/>
@@ -5029,10 +5091,10 @@
       <c r="GV1" s="1"/>
       <c r="GW1" s="1"/>
     </row>
-    <row r="2" spans="1:205" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="201"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="203"/>
+    <row r="2" spans="1:205" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="207"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="209"/>
       <c r="D2" s="90" t="s">
         <v>84</v>
       </c>
@@ -5045,10 +5107,10 @@
       <c r="G2" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="192"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="198"/>
       <c r="L2" s="171">
         <v>1</v>
       </c>
@@ -5632,7 +5694,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="109"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
@@ -5839,7 +5901,7 @@
       <c r="GV3" s="107"/>
       <c r="GW3" s="107"/>
     </row>
-    <row r="4" spans="1:205" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:205" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="111" t="s">
         <v>92</v>
       </c>
@@ -5850,12 +5912,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="98">
-        <f>'объемы работ'!H32/8</f>
-        <v>181.65735519119886</v>
+        <f>'объемы работ'!H33/8</f>
+        <v>218.17949955494888</v>
       </c>
       <c r="E4" s="97">
         <f>I4*J4*H4</f>
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="F4" s="121" t="s">
         <v>108</v>
@@ -5865,7 +5927,7 @@
       </c>
       <c r="H4" s="101">
         <f>ROUNDUP(D4/(J4*I4),0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" s="97">
         <v>2</v>
@@ -6072,7 +6134,7 @@
       <c r="GV4" s="128"/>
       <c r="GW4" s="128"/>
     </row>
-    <row r="5" spans="1:205" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:205" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="112" t="s">
         <v>104</v>
       </c>
@@ -6084,113 +6146,113 @@
         <f>'объемы работ'!D4</f>
         <v>15.338455</v>
       </c>
-      <c r="D5" s="196">
+      <c r="D5" s="202">
         <f>SUM('объемы работ'!F4,'объемы работ'!F5)/8</f>
         <v>50.519293149999996</v>
       </c>
-      <c r="E5" s="197">
+      <c r="E5" s="203">
         <f>H5*I5*J5</f>
         <v>56</v>
       </c>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199">
+      <c r="F5" s="205"/>
+      <c r="G5" s="205">
         <f>SUM('объемы работ'!H4,'объемы работ'!H5)/8</f>
         <v>50.519293149999996</v>
       </c>
-      <c r="H5" s="197">
+      <c r="H5" s="203">
         <f>ROUNDUP(D5/(J5*I5),0)</f>
         <v>7</v>
       </c>
-      <c r="I5" s="193">
+      <c r="I5" s="199">
         <v>2</v>
       </c>
-      <c r="J5" s="193">
+      <c r="J5" s="199">
         <v>4</v>
       </c>
-      <c r="K5" s="194"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="188">
+      <c r="K5" s="200"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="192"/>
+      <c r="N5" s="192"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194">
         <f>J5*I5</f>
         <v>8</v>
       </c>
-      <c r="S5" s="188"/>
-      <c r="T5" s="187"/>
-      <c r="U5" s="188"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186"/>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
-      <c r="AD5" s="186"/>
-      <c r="AE5" s="186"/>
-      <c r="AF5" s="186"/>
-      <c r="AG5" s="186"/>
-      <c r="AH5" s="186"/>
-      <c r="AI5" s="186"/>
-      <c r="AJ5" s="186"/>
-      <c r="AK5" s="186"/>
-      <c r="AL5" s="186"/>
-      <c r="AM5" s="186"/>
-      <c r="AN5" s="186"/>
-      <c r="AO5" s="186"/>
-      <c r="AP5" s="186"/>
-      <c r="AQ5" s="186"/>
-      <c r="AR5" s="186"/>
-      <c r="AS5" s="186"/>
-      <c r="AT5" s="186"/>
-      <c r="AU5" s="186"/>
-      <c r="AV5" s="186"/>
-      <c r="AW5" s="186"/>
-      <c r="AX5" s="186"/>
-      <c r="AY5" s="186"/>
-      <c r="AZ5" s="186"/>
-      <c r="BA5" s="186"/>
-      <c r="BB5" s="186"/>
-      <c r="BC5" s="186"/>
-      <c r="BD5" s="186"/>
-      <c r="BE5" s="186"/>
-      <c r="BF5" s="186"/>
-      <c r="BG5" s="186"/>
-      <c r="BH5" s="186"/>
-      <c r="BI5" s="186"/>
-      <c r="BJ5" s="186"/>
-      <c r="BK5" s="186"/>
-      <c r="BL5" s="186"/>
-      <c r="BM5" s="186"/>
-      <c r="BN5" s="186"/>
-      <c r="BO5" s="186"/>
-      <c r="BP5" s="186"/>
-      <c r="BQ5" s="186"/>
-      <c r="BR5" s="186"/>
-      <c r="BS5" s="186"/>
-      <c r="BT5" s="186"/>
-      <c r="BU5" s="186"/>
-      <c r="BV5" s="186"/>
-      <c r="BW5" s="186"/>
-      <c r="BX5" s="186"/>
-      <c r="BY5" s="186"/>
-      <c r="BZ5" s="186"/>
-      <c r="CA5" s="186"/>
-      <c r="CB5" s="186"/>
-      <c r="CC5" s="186"/>
-      <c r="CD5" s="186"/>
-      <c r="CE5" s="186"/>
-      <c r="CF5" s="186"/>
-      <c r="CG5" s="186"/>
-      <c r="CH5" s="186"/>
-      <c r="CI5" s="186"/>
-      <c r="CJ5" s="186"/>
-      <c r="CK5" s="186"/>
-      <c r="CL5" s="186"/>
-      <c r="CM5" s="186"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="193"/>
+      <c r="U5" s="194"/>
+      <c r="V5" s="192"/>
+      <c r="W5" s="192"/>
+      <c r="X5" s="192"/>
+      <c r="Y5" s="192"/>
+      <c r="Z5" s="192"/>
+      <c r="AA5" s="192"/>
+      <c r="AB5" s="192"/>
+      <c r="AC5" s="192"/>
+      <c r="AD5" s="192"/>
+      <c r="AE5" s="192"/>
+      <c r="AF5" s="192"/>
+      <c r="AG5" s="192"/>
+      <c r="AH5" s="192"/>
+      <c r="AI5" s="192"/>
+      <c r="AJ5" s="192"/>
+      <c r="AK5" s="192"/>
+      <c r="AL5" s="192"/>
+      <c r="AM5" s="192"/>
+      <c r="AN5" s="192"/>
+      <c r="AO5" s="192"/>
+      <c r="AP5" s="192"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="192"/>
+      <c r="AS5" s="192"/>
+      <c r="AT5" s="192"/>
+      <c r="AU5" s="192"/>
+      <c r="AV5" s="192"/>
+      <c r="AW5" s="192"/>
+      <c r="AX5" s="192"/>
+      <c r="AY5" s="192"/>
+      <c r="AZ5" s="192"/>
+      <c r="BA5" s="192"/>
+      <c r="BB5" s="192"/>
+      <c r="BC5" s="192"/>
+      <c r="BD5" s="192"/>
+      <c r="BE5" s="192"/>
+      <c r="BF5" s="192"/>
+      <c r="BG5" s="192"/>
+      <c r="BH5" s="192"/>
+      <c r="BI5" s="192"/>
+      <c r="BJ5" s="192"/>
+      <c r="BK5" s="192"/>
+      <c r="BL5" s="192"/>
+      <c r="BM5" s="192"/>
+      <c r="BN5" s="192"/>
+      <c r="BO5" s="192"/>
+      <c r="BP5" s="192"/>
+      <c r="BQ5" s="192"/>
+      <c r="BR5" s="192"/>
+      <c r="BS5" s="192"/>
+      <c r="BT5" s="192"/>
+      <c r="BU5" s="192"/>
+      <c r="BV5" s="192"/>
+      <c r="BW5" s="192"/>
+      <c r="BX5" s="192"/>
+      <c r="BY5" s="192"/>
+      <c r="BZ5" s="192"/>
+      <c r="CA5" s="192"/>
+      <c r="CB5" s="192"/>
+      <c r="CC5" s="192"/>
+      <c r="CD5" s="192"/>
+      <c r="CE5" s="192"/>
+      <c r="CF5" s="192"/>
+      <c r="CG5" s="192"/>
+      <c r="CH5" s="192"/>
+      <c r="CI5" s="192"/>
+      <c r="CJ5" s="192"/>
+      <c r="CK5" s="192"/>
+      <c r="CL5" s="192"/>
+      <c r="CM5" s="192"/>
       <c r="CN5" s="130"/>
       <c r="CO5" s="130"/>
       <c r="CP5" s="130"/>
@@ -6306,7 +6368,7 @@
       <c r="GV5" s="91"/>
       <c r="GW5" s="91"/>
     </row>
-    <row r="6" spans="1:205" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:205" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="113" t="s">
         <v>93</v>
       </c>
@@ -6318,94 +6380,94 @@
         <f>'объемы работ'!D5</f>
         <v>557.76199999999994</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="186"/>
-      <c r="W6" s="186"/>
-      <c r="X6" s="186"/>
-      <c r="Y6" s="186"/>
-      <c r="Z6" s="186"/>
-      <c r="AA6" s="186"/>
-      <c r="AB6" s="186"/>
-      <c r="AC6" s="186"/>
-      <c r="AD6" s="186"/>
-      <c r="AE6" s="186"/>
-      <c r="AF6" s="186"/>
-      <c r="AG6" s="186"/>
-      <c r="AH6" s="186"/>
-      <c r="AI6" s="186"/>
-      <c r="AJ6" s="186"/>
-      <c r="AK6" s="186"/>
-      <c r="AL6" s="186"/>
-      <c r="AM6" s="186"/>
-      <c r="AN6" s="186"/>
-      <c r="AO6" s="186"/>
-      <c r="AP6" s="186"/>
-      <c r="AQ6" s="186"/>
-      <c r="AR6" s="186"/>
-      <c r="AS6" s="186"/>
-      <c r="AT6" s="186"/>
-      <c r="AU6" s="186"/>
-      <c r="AV6" s="186"/>
-      <c r="AW6" s="186"/>
-      <c r="AX6" s="186"/>
-      <c r="AY6" s="186"/>
-      <c r="AZ6" s="186"/>
-      <c r="BA6" s="186"/>
-      <c r="BB6" s="186"/>
-      <c r="BC6" s="186"/>
-      <c r="BD6" s="186"/>
-      <c r="BE6" s="186"/>
-      <c r="BF6" s="186"/>
-      <c r="BG6" s="186"/>
-      <c r="BH6" s="186"/>
-      <c r="BI6" s="186"/>
-      <c r="BJ6" s="186"/>
-      <c r="BK6" s="186"/>
-      <c r="BL6" s="186"/>
-      <c r="BM6" s="186"/>
-      <c r="BN6" s="186"/>
-      <c r="BO6" s="186"/>
-      <c r="BP6" s="186"/>
-      <c r="BQ6" s="186"/>
-      <c r="BR6" s="186"/>
-      <c r="BS6" s="186"/>
-      <c r="BT6" s="186"/>
-      <c r="BU6" s="186"/>
-      <c r="BV6" s="186"/>
-      <c r="BW6" s="186"/>
-      <c r="BX6" s="186"/>
-      <c r="BY6" s="186"/>
-      <c r="BZ6" s="186"/>
-      <c r="CA6" s="186"/>
-      <c r="CB6" s="186"/>
-      <c r="CC6" s="186"/>
-      <c r="CD6" s="186"/>
-      <c r="CE6" s="186"/>
-      <c r="CF6" s="186"/>
-      <c r="CG6" s="186"/>
-      <c r="CH6" s="186"/>
-      <c r="CI6" s="186"/>
-      <c r="CJ6" s="186"/>
-      <c r="CK6" s="186"/>
-      <c r="CL6" s="186"/>
-      <c r="CM6" s="186"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="192"/>
+      <c r="AA6" s="192"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="192"/>
+      <c r="AF6" s="192"/>
+      <c r="AG6" s="192"/>
+      <c r="AH6" s="192"/>
+      <c r="AI6" s="192"/>
+      <c r="AJ6" s="192"/>
+      <c r="AK6" s="192"/>
+      <c r="AL6" s="192"/>
+      <c r="AM6" s="192"/>
+      <c r="AN6" s="192"/>
+      <c r="AO6" s="192"/>
+      <c r="AP6" s="192"/>
+      <c r="AQ6" s="192"/>
+      <c r="AR6" s="192"/>
+      <c r="AS6" s="192"/>
+      <c r="AT6" s="192"/>
+      <c r="AU6" s="192"/>
+      <c r="AV6" s="192"/>
+      <c r="AW6" s="192"/>
+      <c r="AX6" s="192"/>
+      <c r="AY6" s="192"/>
+      <c r="AZ6" s="192"/>
+      <c r="BA6" s="192"/>
+      <c r="BB6" s="192"/>
+      <c r="BC6" s="192"/>
+      <c r="BD6" s="192"/>
+      <c r="BE6" s="192"/>
+      <c r="BF6" s="192"/>
+      <c r="BG6" s="192"/>
+      <c r="BH6" s="192"/>
+      <c r="BI6" s="192"/>
+      <c r="BJ6" s="192"/>
+      <c r="BK6" s="192"/>
+      <c r="BL6" s="192"/>
+      <c r="BM6" s="192"/>
+      <c r="BN6" s="192"/>
+      <c r="BO6" s="192"/>
+      <c r="BP6" s="192"/>
+      <c r="BQ6" s="192"/>
+      <c r="BR6" s="192"/>
+      <c r="BS6" s="192"/>
+      <c r="BT6" s="192"/>
+      <c r="BU6" s="192"/>
+      <c r="BV6" s="192"/>
+      <c r="BW6" s="192"/>
+      <c r="BX6" s="192"/>
+      <c r="BY6" s="192"/>
+      <c r="BZ6" s="192"/>
+      <c r="CA6" s="192"/>
+      <c r="CB6" s="192"/>
+      <c r="CC6" s="192"/>
+      <c r="CD6" s="192"/>
+      <c r="CE6" s="192"/>
+      <c r="CF6" s="192"/>
+      <c r="CG6" s="192"/>
+      <c r="CH6" s="192"/>
+      <c r="CI6" s="192"/>
+      <c r="CJ6" s="192"/>
+      <c r="CK6" s="192"/>
+      <c r="CL6" s="192"/>
+      <c r="CM6" s="192"/>
       <c r="CN6" s="130"/>
       <c r="CO6" s="130"/>
       <c r="CP6" s="130"/>
@@ -6521,7 +6583,7 @@
       <c r="GV6" s="91"/>
       <c r="GW6" s="91"/>
     </row>
-    <row r="7" spans="1:205" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:205" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="113" t="s">
         <v>94</v>
       </c>
@@ -6755,7 +6817,7 @@
       <c r="GV7" s="91"/>
       <c r="GW7" s="91"/>
     </row>
-    <row r="8" spans="1:205" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:205" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="114" t="s">
         <v>93</v>
       </c>
@@ -6990,7 +7052,7 @@
       <c r="GV8" s="91"/>
       <c r="GW8" s="91"/>
     </row>
-    <row r="9" spans="1:205" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:205" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="114" t="s">
         <v>95</v>
       </c>
@@ -7227,7 +7289,7 @@
       <c r="GV9" s="91"/>
       <c r="GW9" s="91"/>
     </row>
-    <row r="10" spans="1:205" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:205" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="114" t="s">
         <v>113</v>
       </c>
@@ -7241,11 +7303,11 @@
       </c>
       <c r="D10" s="104">
         <f>SUM('объемы работ'!F11:F15)/8</f>
-        <v>1559.3760805625</v>
+        <v>1886.8339592499999</v>
       </c>
       <c r="E10" s="103">
         <f t="shared" si="0"/>
-        <v>1560</v>
+        <v>1898</v>
       </c>
       <c r="F10" s="123"/>
       <c r="G10" s="126">
@@ -7254,7 +7316,7 @@
       </c>
       <c r="H10" s="101">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I10" s="103">
         <v>2</v>
@@ -7354,19 +7416,19 @@
       <c r="CP10" s="131"/>
       <c r="CQ10" s="131"/>
       <c r="CR10" s="131"/>
-      <c r="CS10" s="130"/>
-      <c r="CT10" s="130"/>
-      <c r="CU10" s="130"/>
-      <c r="CV10" s="130"/>
-      <c r="CW10" s="130"/>
-      <c r="CX10" s="130"/>
-      <c r="CY10" s="130"/>
-      <c r="CZ10" s="130"/>
-      <c r="DA10" s="130"/>
-      <c r="DB10" s="130"/>
-      <c r="DC10" s="130"/>
-      <c r="DD10" s="130"/>
-      <c r="DE10" s="130"/>
+      <c r="CS10" s="131"/>
+      <c r="CT10" s="131"/>
+      <c r="CU10" s="131"/>
+      <c r="CV10" s="131"/>
+      <c r="CW10" s="131"/>
+      <c r="CX10" s="131"/>
+      <c r="CY10" s="131"/>
+      <c r="CZ10" s="131"/>
+      <c r="DA10" s="131"/>
+      <c r="DB10" s="131"/>
+      <c r="DC10" s="131"/>
+      <c r="DD10" s="131"/>
+      <c r="DE10" s="131"/>
       <c r="DF10" s="130"/>
       <c r="DG10" s="130"/>
       <c r="DH10" s="130"/>
@@ -7464,7 +7526,7 @@
       <c r="GV10" s="91"/>
       <c r="GW10" s="91"/>
     </row>
-    <row r="11" spans="1:205" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:205" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="114" t="s">
         <v>96</v>
       </c>
@@ -7473,31 +7535,31 @@
         <v>1км</v>
       </c>
       <c r="C11" s="104">
-        <f>SUM('объемы работ'!D16:D18)</f>
+        <f>SUM('объемы работ'!D16:D19)</f>
         <v>13.934049999999999</v>
       </c>
       <c r="D11" s="104">
-        <f>SUM('объемы работ'!F16:F18)/8</f>
-        <v>339.76032499999997</v>
+        <f>SUM('объемы работ'!F16:F19)/8</f>
+        <v>525.66375237499994</v>
       </c>
       <c r="E11" s="103">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>530</v>
       </c>
       <c r="F11" s="123"/>
       <c r="G11" s="123">
-        <f>SUM('объемы работ'!H16:H18)/8</f>
-        <v>186.117858625</v>
+        <f>SUM('объемы работ'!H16:H19)/8</f>
+        <v>185.98140237499999</v>
       </c>
       <c r="H11" s="101">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I11" s="103">
         <v>2</v>
       </c>
       <c r="J11" s="103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="120"/>
       <c r="L11" s="129"/>
@@ -7544,7 +7606,7 @@
       <c r="BA11" s="146"/>
       <c r="BB11" s="146">
         <f>BJ10+BV11</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BC11" s="146"/>
       <c r="BD11" s="146"/>
@@ -7567,7 +7629,7 @@
       <c r="BU11" s="131"/>
       <c r="BV11" s="131">
         <f>J11*I11</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BW11" s="131"/>
       <c r="BX11" s="131"/>
@@ -7587,16 +7649,16 @@
       <c r="CL11" s="131"/>
       <c r="CM11" s="131"/>
       <c r="CN11" s="131"/>
-      <c r="CO11" s="130"/>
-      <c r="CP11" s="130"/>
-      <c r="CQ11" s="130"/>
-      <c r="CR11" s="130"/>
-      <c r="CS11" s="130"/>
-      <c r="CT11" s="130"/>
-      <c r="CU11" s="130"/>
-      <c r="CV11" s="130"/>
-      <c r="CW11" s="130"/>
-      <c r="CX11" s="130"/>
+      <c r="CO11" s="131"/>
+      <c r="CP11" s="131"/>
+      <c r="CQ11" s="131"/>
+      <c r="CR11" s="131"/>
+      <c r="CS11" s="131"/>
+      <c r="CT11" s="131"/>
+      <c r="CU11" s="131"/>
+      <c r="CV11" s="131"/>
+      <c r="CW11" s="131"/>
+      <c r="CX11" s="131"/>
       <c r="CY11" s="130"/>
       <c r="CZ11" s="130"/>
       <c r="DA11" s="130"/>
@@ -7701,34 +7763,34 @@
       <c r="GV11" s="91"/>
       <c r="GW11" s="91"/>
     </row>
-    <row r="12" spans="1:205" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:205" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="114" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="105" t="str">
-        <f>'объемы работ'!C19</f>
+        <f>'объемы работ'!C20</f>
         <v>1км</v>
       </c>
       <c r="C12" s="104">
-        <f>SUM('объемы работ'!D19:D20)</f>
+        <f>SUM('объемы работ'!D20:D21)</f>
         <v>13.934049999999999</v>
       </c>
       <c r="D12" s="104">
-        <f>SUM('объемы работ'!F19:F20)/8</f>
-        <v>294.67209374999999</v>
+        <f>SUM('объемы работ'!F20:F21)/8</f>
+        <v>390.01319375000003</v>
       </c>
       <c r="E12" s="103">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>396</v>
       </c>
       <c r="F12" s="123"/>
       <c r="G12" s="123">
-        <f>SUM('объемы работ'!H19:H20)/8</f>
+        <f>SUM('объемы работ'!H20:H21)/8</f>
         <v>95.341099999999997</v>
       </c>
       <c r="H12" s="101">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" s="103">
         <v>2</v>
@@ -7822,35 +7884,22 @@
       <c r="CP12" s="130"/>
       <c r="CQ12" s="130"/>
       <c r="CR12" s="130"/>
-      <c r="CS12" s="131"/>
-      <c r="CT12" s="131"/>
-      <c r="CU12" s="131"/>
-      <c r="CV12" s="131"/>
-      <c r="CW12" s="131"/>
-      <c r="CX12" s="131"/>
-      <c r="CY12" s="131">
+      <c r="DF12" s="131"/>
+      <c r="DG12" s="131"/>
+      <c r="DH12" s="131"/>
+      <c r="DI12" s="131"/>
+      <c r="DJ12" s="131"/>
+      <c r="DK12" s="131"/>
+      <c r="DL12" s="131">
         <v>22</v>
       </c>
-      <c r="CZ12" s="131"/>
-      <c r="DA12" s="131"/>
-      <c r="DB12" s="131"/>
-      <c r="DC12" s="131"/>
-      <c r="DD12" s="131"/>
-      <c r="DE12" s="131"/>
-      <c r="DF12" s="131"/>
-      <c r="DG12" s="130"/>
-      <c r="DH12" s="130"/>
-      <c r="DI12" s="130"/>
-      <c r="DJ12" s="130"/>
-      <c r="DK12" s="130"/>
-      <c r="DL12" s="130"/>
-      <c r="DM12" s="130"/>
-      <c r="DN12" s="130"/>
-      <c r="DO12" s="130"/>
-      <c r="DP12" s="130"/>
-      <c r="DQ12" s="130"/>
-      <c r="DR12" s="130"/>
-      <c r="DS12" s="130"/>
+      <c r="DM12" s="131"/>
+      <c r="DN12" s="131"/>
+      <c r="DO12" s="131"/>
+      <c r="DP12" s="131"/>
+      <c r="DQ12" s="131"/>
+      <c r="DR12" s="131"/>
+      <c r="DS12" s="131"/>
       <c r="DT12" s="130"/>
       <c r="DU12" s="130"/>
       <c r="DV12" s="130"/>
@@ -7869,19 +7918,19 @@
       <c r="EI12" s="130"/>
       <c r="EJ12" s="130"/>
       <c r="EK12" s="130"/>
-      <c r="EL12" s="91"/>
-      <c r="EM12" s="91"/>
-      <c r="EN12" s="91"/>
-      <c r="EO12" s="91"/>
-      <c r="EP12" s="91"/>
-      <c r="EQ12" s="91"/>
-      <c r="ER12" s="91"/>
-      <c r="ES12" s="91"/>
-      <c r="ET12" s="91"/>
-      <c r="EU12" s="91"/>
-      <c r="EV12" s="91"/>
-      <c r="EW12" s="91"/>
-      <c r="EX12" s="91"/>
+      <c r="EL12" s="130"/>
+      <c r="EM12" s="130"/>
+      <c r="EN12" s="130"/>
+      <c r="EO12" s="130"/>
+      <c r="EP12" s="130"/>
+      <c r="EQ12" s="130"/>
+      <c r="ER12" s="130"/>
+      <c r="ES12" s="130"/>
+      <c r="ET12" s="130"/>
+      <c r="EU12" s="130"/>
+      <c r="EV12" s="130"/>
+      <c r="EW12" s="130"/>
+      <c r="EX12" s="130"/>
       <c r="EY12" s="91"/>
       <c r="EZ12" s="91"/>
       <c r="FA12" s="91"/>
@@ -7934,20 +7983,20 @@
       <c r="GV12" s="91"/>
       <c r="GW12" s="91"/>
     </row>
-    <row r="13" spans="1:205" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:205" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="114" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="105" t="str">
-        <f>'объемы работ'!C22</f>
+        <f>'объемы работ'!C23</f>
         <v>1000м^3</v>
       </c>
       <c r="C13" s="105">
-        <f>'объемы работ'!D22</f>
+        <f>'объемы работ'!D23</f>
         <v>13.974057918929654</v>
       </c>
       <c r="D13" s="104">
-        <f>'объемы работ'!F22/8</f>
+        <f>'объемы работ'!F23/8</f>
         <v>14.026460636125639</v>
       </c>
       <c r="E13" s="103">
@@ -7956,7 +8005,7 @@
       </c>
       <c r="F13" s="123"/>
       <c r="G13" s="123">
-        <f>'объемы работ'!H22/8</f>
+        <f>'объемы работ'!H23/8</f>
         <v>14.026460636125639</v>
       </c>
       <c r="H13" s="101">
@@ -8055,27 +8104,12 @@
       <c r="CP13" s="130"/>
       <c r="CQ13" s="130"/>
       <c r="CR13" s="130"/>
-      <c r="CS13" s="130"/>
-      <c r="CT13" s="130"/>
-      <c r="CU13" s="130"/>
-      <c r="CV13" s="130"/>
-      <c r="CW13" s="130"/>
-      <c r="CX13" s="130"/>
-      <c r="CY13" s="130"/>
-      <c r="CZ13" s="130"/>
-      <c r="DA13" s="130"/>
-      <c r="DB13" s="130"/>
-      <c r="DC13" s="130"/>
-      <c r="DD13" s="130"/>
-      <c r="DE13" s="130"/>
       <c r="DF13" s="130"/>
-      <c r="DG13" s="131"/>
-      <c r="DH13" s="131"/>
-      <c r="DI13" s="131">
-        <v>3</v>
-      </c>
-      <c r="DJ13" s="131"/>
-      <c r="DK13" s="131"/>
+      <c r="DG13" s="130"/>
+      <c r="DH13" s="130"/>
+      <c r="DI13" s="130"/>
+      <c r="DJ13" s="130"/>
+      <c r="DK13" s="130"/>
       <c r="DL13" s="130"/>
       <c r="DM13" s="130"/>
       <c r="DN13" s="130"/>
@@ -8084,11 +8118,13 @@
       <c r="DQ13" s="130"/>
       <c r="DR13" s="130"/>
       <c r="DS13" s="130"/>
-      <c r="DT13" s="130"/>
-      <c r="DU13" s="130"/>
-      <c r="DV13" s="130"/>
-      <c r="DW13" s="130"/>
-      <c r="DX13" s="130"/>
+      <c r="DT13" s="131"/>
+      <c r="DU13" s="131"/>
+      <c r="DV13" s="131">
+        <v>3</v>
+      </c>
+      <c r="DW13" s="131"/>
+      <c r="DX13" s="131"/>
       <c r="DY13" s="130"/>
       <c r="DZ13" s="130"/>
       <c r="EA13" s="130"/>
@@ -8102,19 +8138,19 @@
       <c r="EI13" s="130"/>
       <c r="EJ13" s="130"/>
       <c r="EK13" s="130"/>
-      <c r="EL13" s="91"/>
-      <c r="EM13" s="91"/>
-      <c r="EN13" s="91"/>
-      <c r="EO13" s="91"/>
-      <c r="EP13" s="91"/>
-      <c r="EQ13" s="91"/>
-      <c r="ER13" s="91"/>
-      <c r="ES13" s="91"/>
-      <c r="ET13" s="91"/>
-      <c r="EU13" s="91"/>
-      <c r="EV13" s="91"/>
-      <c r="EW13" s="91"/>
-      <c r="EX13" s="91"/>
+      <c r="EL13" s="130"/>
+      <c r="EM13" s="130"/>
+      <c r="EN13" s="130"/>
+      <c r="EO13" s="130"/>
+      <c r="EP13" s="130"/>
+      <c r="EQ13" s="130"/>
+      <c r="ER13" s="130"/>
+      <c r="ES13" s="130"/>
+      <c r="ET13" s="130"/>
+      <c r="EU13" s="130"/>
+      <c r="EV13" s="130"/>
+      <c r="EW13" s="130"/>
+      <c r="EX13" s="130"/>
       <c r="EY13" s="91"/>
       <c r="EZ13" s="91"/>
       <c r="FA13" s="91"/>
@@ -8167,20 +8203,20 @@
       <c r="GV13" s="91"/>
       <c r="GW13" s="91"/>
     </row>
-    <row r="14" spans="1:205" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:205" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="114" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="105" t="str">
-        <f>'объемы работ'!C23</f>
+        <f>'объемы работ'!C24</f>
         <v>100м^3</v>
       </c>
       <c r="C14" s="105">
-        <f>'объемы работ'!D23</f>
+        <f>'объемы работ'!D24</f>
         <v>7.3547673257524595</v>
       </c>
       <c r="D14" s="104">
-        <f>'объемы работ'!F23/8</f>
+        <f>'объемы работ'!F24/8</f>
         <v>94.609888186648192</v>
       </c>
       <c r="E14" s="103">
@@ -8289,27 +8325,12 @@
       <c r="CP14" s="130"/>
       <c r="CQ14" s="130"/>
       <c r="CR14" s="130"/>
-      <c r="CS14" s="130"/>
-      <c r="CT14" s="130"/>
-      <c r="CU14" s="130"/>
-      <c r="CV14" s="130"/>
-      <c r="CW14" s="130"/>
-      <c r="CX14" s="130"/>
-      <c r="CY14" s="130"/>
-      <c r="CZ14" s="130"/>
-      <c r="DA14" s="130"/>
-      <c r="DB14" s="130"/>
-      <c r="DC14" s="130"/>
-      <c r="DD14" s="130"/>
-      <c r="DE14" s="130"/>
       <c r="DF14" s="130"/>
-      <c r="DG14" s="131"/>
-      <c r="DH14" s="131"/>
-      <c r="DI14" s="131">
-        <v>19</v>
-      </c>
-      <c r="DJ14" s="131"/>
-      <c r="DK14" s="131"/>
+      <c r="DG14" s="130"/>
+      <c r="DH14" s="130"/>
+      <c r="DI14" s="130"/>
+      <c r="DJ14" s="130"/>
+      <c r="DK14" s="130"/>
       <c r="DL14" s="130"/>
       <c r="DM14" s="130"/>
       <c r="DN14" s="130"/>
@@ -8318,11 +8339,13 @@
       <c r="DQ14" s="130"/>
       <c r="DR14" s="130"/>
       <c r="DS14" s="130"/>
-      <c r="DT14" s="130"/>
-      <c r="DU14" s="130"/>
-      <c r="DV14" s="130"/>
-      <c r="DW14" s="130"/>
-      <c r="DX14" s="130"/>
+      <c r="DT14" s="131"/>
+      <c r="DU14" s="131"/>
+      <c r="DV14" s="131">
+        <v>19</v>
+      </c>
+      <c r="DW14" s="131"/>
+      <c r="DX14" s="131"/>
       <c r="DY14" s="130"/>
       <c r="DZ14" s="130"/>
       <c r="EA14" s="130"/>
@@ -8336,19 +8359,19 @@
       <c r="EI14" s="130"/>
       <c r="EJ14" s="130"/>
       <c r="EK14" s="130"/>
-      <c r="EL14" s="91"/>
-      <c r="EM14" s="91"/>
-      <c r="EN14" s="91"/>
-      <c r="EO14" s="91"/>
-      <c r="EP14" s="91"/>
-      <c r="EQ14" s="91"/>
-      <c r="ER14" s="91"/>
-      <c r="ES14" s="91"/>
-      <c r="ET14" s="91"/>
-      <c r="EU14" s="91"/>
-      <c r="EV14" s="91"/>
-      <c r="EW14" s="91"/>
-      <c r="EX14" s="91"/>
+      <c r="EL14" s="130"/>
+      <c r="EM14" s="130"/>
+      <c r="EN14" s="130"/>
+      <c r="EO14" s="130"/>
+      <c r="EP14" s="130"/>
+      <c r="EQ14" s="130"/>
+      <c r="ER14" s="130"/>
+      <c r="ES14" s="130"/>
+      <c r="ET14" s="130"/>
+      <c r="EU14" s="130"/>
+      <c r="EV14" s="130"/>
+      <c r="EW14" s="130"/>
+      <c r="EX14" s="130"/>
       <c r="EY14" s="91"/>
       <c r="EZ14" s="91"/>
       <c r="FA14" s="91"/>
@@ -8401,20 +8424,20 @@
       <c r="GV14" s="91"/>
       <c r="GW14" s="91"/>
     </row>
-    <row r="15" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:205" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="114" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="105" t="str">
-        <f>'объемы работ'!C24</f>
+        <f>'объемы работ'!C25</f>
         <v>100м^3</v>
       </c>
       <c r="C15" s="105">
-        <f>'объемы работ'!D24</f>
+        <f>'объемы работ'!D25</f>
         <v>147.09534651504902</v>
       </c>
       <c r="D15" s="104">
-        <f>'объемы работ'!F24/8</f>
+        <f>'объемы работ'!F25/8</f>
         <v>230.38808647919552</v>
       </c>
       <c r="E15" s="103">
@@ -8423,7 +8446,7 @@
       </c>
       <c r="F15" s="123"/>
       <c r="G15" s="126">
-        <f>'объемы работ'!H24/8</f>
+        <f>'объемы работ'!H25/8</f>
         <v>223.95266506916212</v>
       </c>
       <c r="H15" s="101">
@@ -8522,66 +8545,53 @@
       <c r="CP15" s="130"/>
       <c r="CQ15" s="130"/>
       <c r="CR15" s="130"/>
-      <c r="CS15" s="130"/>
-      <c r="CT15" s="130"/>
-      <c r="CU15" s="130"/>
-      <c r="CV15" s="130"/>
-      <c r="CW15" s="130"/>
-      <c r="CX15" s="130"/>
-      <c r="CY15" s="130"/>
-      <c r="CZ15" s="130"/>
-      <c r="DA15" s="130"/>
-      <c r="DB15" s="130"/>
-      <c r="DC15" s="130"/>
-      <c r="DD15" s="130"/>
-      <c r="DE15" s="130"/>
       <c r="DF15" s="130"/>
       <c r="DG15" s="130"/>
       <c r="DH15" s="130"/>
       <c r="DI15" s="130"/>
       <c r="DJ15" s="130"/>
       <c r="DK15" s="130"/>
-      <c r="DL15" s="131"/>
-      <c r="DM15" s="131"/>
-      <c r="DN15" s="131"/>
-      <c r="DO15" s="131"/>
-      <c r="DP15" s="131"/>
-      <c r="DQ15" s="131"/>
-      <c r="DR15" s="131">
-        <v>22</v>
-      </c>
-      <c r="DS15" s="131"/>
-      <c r="DT15" s="131"/>
-      <c r="DU15" s="131"/>
-      <c r="DV15" s="131"/>
+      <c r="DL15" s="130"/>
+      <c r="DM15" s="130"/>
+      <c r="DN15" s="130"/>
+      <c r="DO15" s="130"/>
+      <c r="DP15" s="130"/>
+      <c r="DQ15" s="130"/>
+      <c r="DR15" s="130"/>
+      <c r="DS15" s="130"/>
+      <c r="DT15" s="130"/>
+      <c r="DU15" s="130"/>
+      <c r="DV15" s="130"/>
       <c r="DW15" s="130"/>
       <c r="DX15" s="130"/>
-      <c r="DY15" s="130"/>
-      <c r="DZ15" s="130"/>
-      <c r="EA15" s="130"/>
-      <c r="EB15" s="130"/>
-      <c r="EC15" s="130"/>
-      <c r="ED15" s="130"/>
-      <c r="EE15" s="130"/>
-      <c r="EF15" s="130"/>
-      <c r="EG15" s="130"/>
-      <c r="EH15" s="130"/>
-      <c r="EI15" s="130"/>
+      <c r="DY15" s="131"/>
+      <c r="DZ15" s="131"/>
+      <c r="EA15" s="131"/>
+      <c r="EB15" s="131"/>
+      <c r="EC15" s="131"/>
+      <c r="ED15" s="131"/>
+      <c r="EE15" s="131">
+        <v>22</v>
+      </c>
+      <c r="EF15" s="131"/>
+      <c r="EG15" s="131"/>
+      <c r="EH15" s="131"/>
+      <c r="EI15" s="131"/>
       <c r="EJ15" s="130"/>
       <c r="EK15" s="130"/>
-      <c r="EL15" s="91"/>
-      <c r="EM15" s="91"/>
-      <c r="EN15" s="91"/>
-      <c r="EO15" s="91"/>
-      <c r="EP15" s="91"/>
-      <c r="EQ15" s="91"/>
-      <c r="ER15" s="91"/>
-      <c r="ES15" s="91"/>
-      <c r="ET15" s="91"/>
-      <c r="EU15" s="91"/>
-      <c r="EV15" s="91"/>
-      <c r="EW15" s="91"/>
-      <c r="EX15" s="91"/>
+      <c r="EL15" s="130"/>
+      <c r="EM15" s="130"/>
+      <c r="EN15" s="130"/>
+      <c r="EO15" s="130"/>
+      <c r="EP15" s="130"/>
+      <c r="EQ15" s="130"/>
+      <c r="ER15" s="130"/>
+      <c r="ES15" s="130"/>
+      <c r="ET15" s="130"/>
+      <c r="EU15" s="130"/>
+      <c r="EV15" s="130"/>
+      <c r="EW15" s="130"/>
+      <c r="EX15" s="130"/>
       <c r="EY15" s="91"/>
       <c r="EZ15" s="91"/>
       <c r="FA15" s="91"/>
@@ -8634,7 +8644,7 @@
       <c r="GV15" s="91"/>
       <c r="GW15" s="91"/>
     </row>
-    <row r="16" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A16" s="114" t="s">
         <v>101</v>
       </c>
@@ -8645,12 +8655,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="104">
-        <f>'объемы работ'!H34/8</f>
-        <v>151.38112932599907</v>
+        <f>'объемы работ'!H35/8</f>
+        <v>181.81624962912409</v>
       </c>
       <c r="E16" s="103">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="F16" s="123" t="s">
         <v>108</v>
@@ -8660,7 +8670,7 @@
       </c>
       <c r="H16" s="101">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I16" s="103">
         <v>1</v>
@@ -8754,27 +8764,12 @@
       <c r="CP16" s="130"/>
       <c r="CQ16" s="130"/>
       <c r="CR16" s="130"/>
-      <c r="CS16" s="131"/>
-      <c r="CT16" s="131"/>
-      <c r="CU16" s="131"/>
-      <c r="CV16" s="131"/>
-      <c r="CW16" s="131"/>
-      <c r="CX16" s="131"/>
-      <c r="CY16" s="131"/>
-      <c r="CZ16" s="131"/>
-      <c r="DA16" s="131"/>
-      <c r="DB16" s="131"/>
-      <c r="DC16" s="131"/>
-      <c r="DD16" s="131"/>
-      <c r="DE16" s="131"/>
       <c r="DF16" s="131"/>
       <c r="DG16" s="131"/>
       <c r="DH16" s="131"/>
       <c r="DI16" s="131"/>
       <c r="DJ16" s="131"/>
-      <c r="DK16" s="131">
-        <v>4</v>
-      </c>
+      <c r="DK16" s="131"/>
       <c r="DL16" s="131"/>
       <c r="DM16" s="131"/>
       <c r="DN16" s="131"/>
@@ -8787,33 +8782,35 @@
       <c r="DU16" s="131"/>
       <c r="DV16" s="131"/>
       <c r="DW16" s="131"/>
-      <c r="DX16" s="131"/>
+      <c r="DX16" s="131">
+        <v>4</v>
+      </c>
       <c r="DY16" s="131"/>
       <c r="DZ16" s="131"/>
       <c r="EA16" s="131"/>
       <c r="EB16" s="131"/>
       <c r="EC16" s="131"/>
       <c r="ED16" s="131"/>
-      <c r="EE16" s="130"/>
-      <c r="EF16" s="130"/>
-      <c r="EG16" s="130"/>
-      <c r="EH16" s="130"/>
-      <c r="EI16" s="130"/>
-      <c r="EJ16" s="130"/>
-      <c r="EK16" s="130"/>
-      <c r="EL16" s="91"/>
-      <c r="EM16" s="91"/>
-      <c r="EN16" s="91"/>
-      <c r="EO16" s="91"/>
-      <c r="EP16" s="91"/>
-      <c r="EQ16" s="91"/>
-      <c r="ER16" s="91"/>
-      <c r="ES16" s="91"/>
-      <c r="ET16" s="91"/>
-      <c r="EU16" s="91"/>
-      <c r="EV16" s="91"/>
-      <c r="EW16" s="91"/>
-      <c r="EX16" s="91"/>
+      <c r="EE16" s="131"/>
+      <c r="EF16" s="131"/>
+      <c r="EG16" s="131"/>
+      <c r="EH16" s="131"/>
+      <c r="EI16" s="131"/>
+      <c r="EJ16" s="131"/>
+      <c r="EK16" s="131"/>
+      <c r="EL16" s="131"/>
+      <c r="EM16" s="131"/>
+      <c r="EN16" s="131"/>
+      <c r="EO16" s="131"/>
+      <c r="EP16" s="131"/>
+      <c r="EQ16" s="131"/>
+      <c r="ER16" s="130"/>
+      <c r="ES16" s="130"/>
+      <c r="ET16" s="130"/>
+      <c r="EU16" s="130"/>
+      <c r="EV16" s="130"/>
+      <c r="EW16" s="130"/>
+      <c r="EX16" s="130"/>
       <c r="EY16" s="91"/>
       <c r="EZ16" s="91"/>
       <c r="FA16" s="91"/>
@@ -8866,7 +8863,7 @@
       <c r="GV16" s="91"/>
       <c r="GW16" s="91"/>
     </row>
-    <row r="17" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A17" s="114" t="s">
         <v>102</v>
       </c>
@@ -8877,12 +8874,12 @@
         <v>7</v>
       </c>
       <c r="D17" s="104">
-        <f>'объемы работ'!H36/8</f>
-        <v>211.93358105639871</v>
+        <f>'объемы работ'!H37/8</f>
+        <v>254.54274948077375</v>
       </c>
       <c r="E17" s="103">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="F17" s="123" t="s">
         <v>108</v>
@@ -8892,7 +8889,7 @@
       </c>
       <c r="H17" s="101">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" s="103">
         <v>2</v>
@@ -8986,19 +8983,6 @@
       <c r="CP17" s="130"/>
       <c r="CQ17" s="130"/>
       <c r="CR17" s="130"/>
-      <c r="CS17" s="130"/>
-      <c r="CT17" s="130"/>
-      <c r="CU17" s="130"/>
-      <c r="CV17" s="130"/>
-      <c r="CW17" s="130"/>
-      <c r="CX17" s="130"/>
-      <c r="CY17" s="130"/>
-      <c r="CZ17" s="130"/>
-      <c r="DA17" s="130"/>
-      <c r="DB17" s="130"/>
-      <c r="DC17" s="130"/>
-      <c r="DD17" s="130"/>
-      <c r="DE17" s="130"/>
       <c r="DF17" s="130"/>
       <c r="DG17" s="130"/>
       <c r="DH17" s="130"/>
@@ -9016,36 +9000,36 @@
       <c r="DT17" s="130"/>
       <c r="DU17" s="130"/>
       <c r="DV17" s="130"/>
-      <c r="DW17" s="131"/>
-      <c r="DX17" s="131"/>
-      <c r="DY17" s="131"/>
-      <c r="DZ17" s="131"/>
-      <c r="EA17" s="131"/>
-      <c r="EB17" s="131">
-        <v>22</v>
-      </c>
-      <c r="EC17" s="131"/>
-      <c r="ED17" s="131"/>
-      <c r="EE17" s="131"/>
-      <c r="EF17" s="131"/>
+      <c r="DW17" s="130"/>
+      <c r="DX17" s="130"/>
+      <c r="DY17" s="130"/>
+      <c r="DZ17" s="130"/>
+      <c r="EA17" s="130"/>
+      <c r="EB17" s="130"/>
+      <c r="EC17" s="130"/>
+      <c r="ED17" s="130"/>
+      <c r="EE17" s="130"/>
+      <c r="EF17" s="130"/>
       <c r="EG17" s="130"/>
       <c r="EH17" s="130"/>
       <c r="EI17" s="130"/>
-      <c r="EJ17" s="130"/>
-      <c r="EK17" s="130"/>
-      <c r="EL17" s="91"/>
-      <c r="EM17" s="91"/>
-      <c r="EN17" s="91"/>
-      <c r="EO17" s="91"/>
-      <c r="EP17" s="91"/>
-      <c r="EQ17" s="91"/>
-      <c r="ER17" s="91"/>
-      <c r="ES17" s="91"/>
-      <c r="ET17" s="91"/>
-      <c r="EU17" s="91"/>
-      <c r="EV17" s="91"/>
-      <c r="EW17" s="91"/>
-      <c r="EX17" s="91"/>
+      <c r="EJ17" s="131"/>
+      <c r="EK17" s="131"/>
+      <c r="EL17" s="131"/>
+      <c r="EM17" s="131"/>
+      <c r="EN17" s="131"/>
+      <c r="EO17" s="131">
+        <v>22</v>
+      </c>
+      <c r="EP17" s="131"/>
+      <c r="EQ17" s="131"/>
+      <c r="ER17" s="131"/>
+      <c r="ES17" s="131"/>
+      <c r="ET17" s="130"/>
+      <c r="EU17" s="130"/>
+      <c r="EV17" s="130"/>
+      <c r="EW17" s="130"/>
+      <c r="EX17" s="130"/>
       <c r="EY17" s="91"/>
       <c r="EZ17" s="91"/>
       <c r="FA17" s="91"/>
@@ -9098,7 +9082,7 @@
       <c r="GV17" s="91"/>
       <c r="GW17" s="91"/>
     </row>
-    <row r="18" spans="1:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="115" t="s">
         <v>103</v>
       </c>
@@ -9109,12 +9093,12 @@
         <v>6</v>
       </c>
       <c r="D18" s="117">
-        <f>'объемы работ'!H38/8</f>
-        <v>181.65735519119886</v>
+        <f>'объемы работ'!H39/8</f>
+        <v>218.17949955494888</v>
       </c>
       <c r="E18" s="116">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="F18" s="124" t="s">
         <v>108</v>
@@ -9124,7 +9108,7 @@
       </c>
       <c r="H18" s="101">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" s="116">
         <v>2</v>
@@ -9218,19 +9202,6 @@
       <c r="CP18" s="145"/>
       <c r="CQ18" s="145"/>
       <c r="CR18" s="145"/>
-      <c r="CS18" s="145"/>
-      <c r="CT18" s="145"/>
-      <c r="CU18" s="145"/>
-      <c r="CV18" s="145"/>
-      <c r="CW18" s="145"/>
-      <c r="CX18" s="145"/>
-      <c r="CY18" s="145"/>
-      <c r="CZ18" s="145"/>
-      <c r="DA18" s="145"/>
-      <c r="DB18" s="145"/>
-      <c r="DC18" s="145"/>
-      <c r="DD18" s="145"/>
-      <c r="DE18" s="145"/>
       <c r="DF18" s="145"/>
       <c r="DG18" s="145"/>
       <c r="DH18" s="145"/>
@@ -9258,30 +9229,30 @@
       <c r="ED18" s="145"/>
       <c r="EE18" s="145"/>
       <c r="EF18" s="145"/>
-      <c r="EG18" s="137"/>
-      <c r="EH18" s="137"/>
-      <c r="EI18" s="137"/>
-      <c r="EJ18" s="137"/>
-      <c r="EK18" s="137">
+      <c r="EG18" s="145"/>
+      <c r="EH18" s="145"/>
+      <c r="EI18" s="145"/>
+      <c r="EJ18" s="145"/>
+      <c r="EK18" s="145"/>
+      <c r="EL18" s="145"/>
+      <c r="EM18" s="145"/>
+      <c r="EN18" s="145"/>
+      <c r="EO18" s="145"/>
+      <c r="EP18" s="145"/>
+      <c r="EQ18" s="145"/>
+      <c r="ER18" s="145"/>
+      <c r="ES18" s="145"/>
+      <c r="ET18" s="137"/>
+      <c r="EU18" s="137"/>
+      <c r="EV18" s="137"/>
+      <c r="EW18" s="137"/>
+      <c r="EX18" s="137">
         <v>22</v>
       </c>
-      <c r="EL18" s="137"/>
-      <c r="EM18" s="137"/>
-      <c r="EN18" s="137"/>
-      <c r="EO18" s="137"/>
-      <c r="EP18" s="92"/>
-      <c r="EQ18" s="92"/>
-      <c r="ER18" s="92"/>
-      <c r="ES18" s="92"/>
-      <c r="ET18" s="92"/>
-      <c r="EU18" s="92"/>
-      <c r="EV18" s="92"/>
-      <c r="EW18" s="92"/>
-      <c r="EX18" s="92"/>
-      <c r="EY18" s="92"/>
-      <c r="EZ18" s="92"/>
-      <c r="FA18" s="92"/>
-      <c r="FB18" s="92"/>
+      <c r="EY18" s="137"/>
+      <c r="EZ18" s="137"/>
+      <c r="FA18" s="137"/>
+      <c r="FB18" s="137"/>
       <c r="FC18" s="92"/>
       <c r="FD18" s="92"/>
       <c r="FE18" s="92"/>
@@ -9330,7 +9301,7 @@
       <c r="GV18" s="92"/>
       <c r="GW18" s="92"/>
     </row>
-    <row r="26" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:205" x14ac:dyDescent="0.25">
       <c r="L26" s="170"/>
       <c r="M26" s="170"/>
       <c r="N26" s="170"/>
@@ -9452,7 +9423,7 @@
       <c r="DZ26" s="170"/>
       <c r="EA26" s="170"/>
     </row>
-    <row r="27" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:205" x14ac:dyDescent="0.25">
       <c r="L27" s="170"/>
       <c r="M27" s="170"/>
       <c r="N27" s="170"/>
@@ -9576,7 +9547,7 @@
       <c r="DZ27" s="170"/>
       <c r="EA27" s="170"/>
     </row>
-    <row r="28" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:205" x14ac:dyDescent="0.25">
       <c r="L28" s="170"/>
       <c r="M28" s="170"/>
       <c r="N28" s="170"/>
@@ -9698,7 +9669,7 @@
       <c r="DZ28" s="170"/>
       <c r="EA28" s="170"/>
     </row>
-    <row r="29" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:205" x14ac:dyDescent="0.25">
       <c r="L29" s="170"/>
       <c r="M29" s="170"/>
       <c r="N29" s="170"/>
@@ -9820,7 +9791,7 @@
       <c r="DZ29" s="170"/>
       <c r="EA29" s="170"/>
     </row>
-    <row r="30" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:205" x14ac:dyDescent="0.25">
       <c r="L30" s="170"/>
       <c r="M30" s="170"/>
       <c r="N30" s="170"/>
@@ -9942,7 +9913,7 @@
       <c r="DZ30" s="170"/>
       <c r="EA30" s="170"/>
     </row>
-    <row r="31" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:205" x14ac:dyDescent="0.25">
       <c r="L31" s="170"/>
       <c r="M31" s="170"/>
       <c r="N31" s="170"/>
@@ -10064,7 +10035,7 @@
       <c r="DZ31" s="170"/>
       <c r="EA31" s="170"/>
     </row>
-    <row r="32" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:205" x14ac:dyDescent="0.25">
       <c r="L32" s="170"/>
       <c r="M32" s="170"/>
       <c r="N32" s="170"/>
@@ -10186,7 +10157,7 @@
       <c r="DZ32" s="170"/>
       <c r="EA32" s="170"/>
     </row>
-    <row r="33" spans="12:141" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:141" x14ac:dyDescent="0.25">
       <c r="L33" s="170"/>
       <c r="M33" s="170"/>
       <c r="N33" s="170"/>
@@ -10308,7 +10279,7 @@
       <c r="DZ33" s="170"/>
       <c r="EA33" s="170"/>
     </row>
-    <row r="34" spans="12:141" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:141" x14ac:dyDescent="0.25">
       <c r="L34" s="170"/>
       <c r="M34" s="170"/>
       <c r="N34" s="170"/>
@@ -10430,7 +10401,7 @@
       <c r="DZ34" s="170"/>
       <c r="EA34" s="170"/>
     </row>
-    <row r="35" spans="12:141" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:141" x14ac:dyDescent="0.25">
       <c r="L35" s="170"/>
       <c r="M35" s="170"/>
       <c r="N35" s="170"/>
@@ -10552,7 +10523,7 @@
       <c r="DZ35" s="170"/>
       <c r="EA35" s="170"/>
     </row>
-    <row r="36" spans="12:141" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:141" x14ac:dyDescent="0.25">
       <c r="L36" s="170"/>
       <c r="M36" s="170"/>
       <c r="N36" s="170"/>
@@ -10674,7 +10645,7 @@
       <c r="DZ36" s="170"/>
       <c r="EA36" s="170"/>
     </row>
-    <row r="37" spans="12:141" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:141" x14ac:dyDescent="0.25">
       <c r="L37" s="173">
         <v>1</v>
       </c>
@@ -11179,15 +11150,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="138" t="s">
         <v>115</v>
       </c>
@@ -11201,7 +11172,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>131</v>
       </c>
@@ -11209,13 +11180,13 @@
         <v>119</v>
       </c>
       <c r="C2" s="140">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D2" s="140" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="139" t="s">
         <v>132</v>
       </c>
@@ -11230,7 +11201,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="139" t="s">
         <v>133</v>
       </c>
@@ -11239,13 +11210,13 @@
       </c>
       <c r="C4" s="140">
         <f>SUM('календарный план'!E4:E18)</f>
-        <v>3848</v>
+        <v>4588</v>
       </c>
       <c r="D4" s="140" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="139" t="s">
         <v>134</v>
       </c>
@@ -11254,13 +11225,13 @@
       </c>
       <c r="C5" s="143">
         <f>C4/C3</f>
-        <v>0.2761580445024957</v>
+        <v>0.32926536075297563</v>
       </c>
       <c r="D5" s="140" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="139" t="s">
         <v>135</v>
       </c>
@@ -11274,7 +11245,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="139" t="s">
         <v>136</v>
       </c>
@@ -11283,13 +11254,13 @@
       </c>
       <c r="C7" s="140">
         <f>ROUNDUP(C4/C2,0)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="140" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="139" t="s">
         <v>137</v>
       </c>
@@ -11298,7 +11269,7 @@
       </c>
       <c r="C8" s="140">
         <f>(K8*H8+K9*H9)/H10</f>
-        <v>1.8095238095238095</v>
+        <v>1.8088737201365188</v>
       </c>
       <c r="D8" s="140" t="s">
         <v>129</v>
@@ -11308,7 +11279,7 @@
       </c>
       <c r="H8">
         <f>SUMIF('календарный план'!$I$4:$I$18,1,'календарный план'!$H$4:$H$18)</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
         <v>142</v>
@@ -11317,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="141" t="s">
         <v>138</v>
       </c>
@@ -11326,7 +11297,7 @@
       </c>
       <c r="C9" s="142">
         <f>H10/C2</f>
-        <v>1.8805970149253732</v>
+        <v>1.9931972789115646</v>
       </c>
       <c r="D9" s="142" t="s">
         <v>130</v>
@@ -11336,7 +11307,7 @@
       </c>
       <c r="H9">
         <f>SUMIF('календарный план'!$I$4:$I$18,2,'календарный план'!$H$4:$H$18)</f>
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="J9" t="s">
         <v>143</v>
@@ -11345,13 +11316,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>141</v>
       </c>
       <c r="H10">
         <f>SUM(H8:H9)</f>
-        <v>252</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -11365,22 +11336,22 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -11389,7 +11360,7 @@
         <v>50.977499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -11398,7 +11369,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -11407,7 +11378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -11416,7 +11387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -11425,7 +11396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -11434,7 +11405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -11443,7 +11414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -11452,7 +11423,7 @@
         <v>37.44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -11461,7 +11432,7 @@
         <v>15.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="156" t="s">
         <v>153</v>
       </c>
@@ -11487,23 +11458,23 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="150" t="s">
         <v>161</v>
       </c>
       <c r="B18" s="151"/>
-      <c r="C18" s="206">
+      <c r="C18" s="212">
         <v>1.5</v>
       </c>
       <c r="D18" s="151"/>
       <c r="E18" s="157"/>
-      <c r="F18" s="206" t="s">
+      <c r="F18" s="212" t="s">
         <v>164</v>
       </c>
       <c r="G18" s="157"/>
       <c r="H18" s="158"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="152" t="s">
         <v>162</v>
       </c>
@@ -11511,7 +11482,7 @@
         <f>B11</f>
         <v>36</v>
       </c>
-      <c r="C19" s="207"/>
+      <c r="C19" s="213"/>
       <c r="D19" s="148">
         <f>B19*C18</f>
         <v>54</v>
@@ -11519,7 +11490,7 @@
       <c r="E19" s="149">
         <v>14.4</v>
       </c>
-      <c r="F19" s="207"/>
+      <c r="F19" s="213"/>
       <c r="G19" s="149" t="s">
         <v>178</v>
       </c>
@@ -11527,7 +11498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="153" t="s">
         <v>163</v>
       </c>
@@ -11535,7 +11506,7 @@
         <f>B10</f>
         <v>15</v>
       </c>
-      <c r="C20" s="208"/>
+      <c r="C20" s="214"/>
       <c r="D20" s="155">
         <f>B20*C18</f>
         <v>22.5</v>
@@ -11543,7 +11514,7 @@
       <c r="E20" s="161">
         <v>24.5</v>
       </c>
-      <c r="F20" s="208"/>
+      <c r="F20" s="214"/>
       <c r="G20" s="161" t="s">
         <v>177</v>
       </c>
@@ -11551,29 +11522,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="150" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="151"/>
-      <c r="C21" s="206">
+      <c r="C21" s="212">
         <v>0.54</v>
       </c>
       <c r="D21" s="151"/>
-      <c r="E21" s="206">
+      <c r="E21" s="212">
         <v>24.4</v>
       </c>
-      <c r="F21" s="206" t="s">
+      <c r="F21" s="212" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="206" t="s">
+      <c r="G21" s="212" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="209">
+      <c r="H21" s="215">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="152" t="s">
         <v>162</v>
       </c>
@@ -11581,17 +11552,17 @@
         <f>B11</f>
         <v>36</v>
       </c>
-      <c r="C22" s="207"/>
+      <c r="C22" s="213"/>
       <c r="D22" s="148">
         <f>B22*C21</f>
         <v>19.440000000000001</v>
       </c>
-      <c r="E22" s="207"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="210"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="216"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="153" t="s">
         <v>163</v>
       </c>
@@ -11599,17 +11570,17 @@
         <f>B10</f>
         <v>15</v>
       </c>
-      <c r="C23" s="208"/>
+      <c r="C23" s="214"/>
       <c r="D23" s="155">
         <f>B23*C21</f>
         <v>8.1000000000000014</v>
       </c>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="211"/>
-    </row>
-    <row r="24" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="217"/>
+    </row>
+    <row r="24" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="163" t="s">
         <v>168</v>
       </c>
@@ -11635,67 +11606,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="215" t="s">
+    <row r="25" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="221" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="206">
+      <c r="B25" s="212">
         <f>ROUND(B1,0)</f>
         <v>51</v>
       </c>
-      <c r="C25" s="206">
+      <c r="C25" s="212">
         <v>0.2</v>
       </c>
-      <c r="D25" s="206">
+      <c r="D25" s="212">
         <f>C25*B25</f>
         <v>10.200000000000001</v>
       </c>
-      <c r="E25" s="206" t="s">
+      <c r="E25" s="212" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="206" t="s">
+      <c r="F25" s="212" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="206" t="s">
+      <c r="G25" s="212" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="209">
+      <c r="H25" s="215">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="216"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="211"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="222"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="217"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="150" t="s">
         <v>175</v>
       </c>
       <c r="B27" s="157"/>
-      <c r="C27" s="206">
+      <c r="C27" s="212">
         <v>0.1</v>
       </c>
       <c r="D27" s="151"/>
-      <c r="E27" s="206">
+      <c r="E27" s="212">
         <v>2.1</v>
       </c>
-      <c r="F27" s="206" t="s">
+      <c r="F27" s="212" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="206" t="s">
+      <c r="G27" s="212" t="s">
         <v>176</v>
       </c>
-      <c r="H27" s="212">
+      <c r="H27" s="218">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="152" t="s">
         <v>162</v>
       </c>
@@ -11703,17 +11674,17 @@
         <f>B11</f>
         <v>36</v>
       </c>
-      <c r="C28" s="207"/>
+      <c r="C28" s="213"/>
       <c r="D28" s="148">
         <f>B28*$C$27</f>
         <v>3.6</v>
       </c>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="213"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="213"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="219"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="153" t="s">
         <v>163</v>
       </c>
@@ -11721,35 +11692,35 @@
         <f>B10</f>
         <v>15</v>
       </c>
-      <c r="C29" s="208"/>
+      <c r="C29" s="214"/>
       <c r="D29" s="160">
         <f>B29*$C$27</f>
         <v>1.5</v>
       </c>
-      <c r="E29" s="208"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="214"/>
-    </row>
-    <row r="30" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="217" t="s">
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="220"/>
+    </row>
+    <row r="30" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="223" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="206">
+      <c r="B30" s="212">
         <f>ROUND(B1,0)</f>
         <v>51</v>
       </c>
-      <c r="C30" s="219">
+      <c r="C30" s="225">
         <v>1</v>
       </c>
-      <c r="D30" s="219">
+      <c r="D30" s="225">
         <f>B30*C30</f>
         <v>51</v>
       </c>
       <c r="E30" s="166">
         <v>14.4</v>
       </c>
-      <c r="F30" s="206" t="s">
+      <c r="F30" s="212" t="s">
         <v>164</v>
       </c>
       <c r="G30" s="166" t="s">
@@ -11759,15 +11730,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="218"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="220"/>
-      <c r="D31" s="220"/>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="224"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="226"/>
+      <c r="D31" s="226"/>
       <c r="E31" s="168">
         <v>23.5</v>
       </c>
-      <c r="F31" s="208"/>
+      <c r="F31" s="214"/>
       <c r="G31" s="168" t="s">
         <v>180</v>
       </c>

--- a/BaMWPart/documentation/calculation/worksVolumes.xlsx
+++ b/BaMWPart/documentation/calculation/worksVolumes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kostya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplom\ASK_Diplom\BaMWPart\documentation\calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022211A9-480C-4C03-A27F-933963BDBCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2DE3F4-408A-4019-B265-B99640E684DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="исходники" sheetId="1" r:id="rId1"/>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF72D008-3CC3-4CF9-93DA-647CD52762FF}">
   <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4323,7 +4323,10 @@
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="175"/>
+      <c r="K17" s="175">
+        <f>H17/8</f>
+        <v>3.1650052499999997</v>
+      </c>
       <c r="L17" s="175"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -4374,7 +4377,10 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="175"/>
+      <c r="K18" s="175">
+        <f>H18/8</f>
+        <v>13.275707000000001</v>
+      </c>
       <c r="L18" s="175"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -4847,8 +4853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCFD238-66E2-4586-9621-468FEA87056B}">
   <dimension ref="A1:GW37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11146,8 +11152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C096340-A71F-4F5F-8111-1FB939294B99}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11180,7 +11186,7 @@
         <v>119</v>
       </c>
       <c r="C2" s="140">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="140" t="s">
         <v>123</v>
@@ -11254,7 +11260,7 @@
       </c>
       <c r="C7" s="140">
         <f>ROUNDUP(C4/C2,0)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="140" t="s">
         <v>128</v>
@@ -11297,7 +11303,7 @@
       </c>
       <c r="C9" s="142">
         <f>H10/C2</f>
-        <v>1.9931972789115646</v>
+        <v>1.9533333333333334</v>
       </c>
       <c r="D9" s="142" t="s">
         <v>130</v>
@@ -11335,7 +11341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6944EEA4-C61B-41BF-936E-9CF4B872A9F7}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
